--- a/工程管理/项目总体计划V1.0.xlsx
+++ b/工程管理/项目总体计划V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="827"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="827" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="18" r:id="rId1"/>
@@ -3112,7 +3112,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3123,6 +3123,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -3710,15 +3716,33 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3728,24 +3752,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3857,6 +3863,48 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3866,125 +3914,134 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3992,68 +4049,17 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="58">
+  <cellStyles count="60">
     <cellStyle name="常规_CSSP_SPP_原紙_プロジェクト計画書（新規開発）" xfId="1"/>
     <cellStyle name="常规_模版母板" xfId="2"/>
     <cellStyle name="超链接" xfId="3" builtinId="8"/>
@@ -4111,6 +4117,8 @@
     <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -4805,7 +4813,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A10:I44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E20" sqref="E20:F20"/>
     </sheetView>
   </sheetViews>
@@ -4817,89 +4825,89 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A10" s="156" t="s">
+      <c r="A10" s="150" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="157"/>
-      <c r="C10" s="157"/>
-      <c r="D10" s="157"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="157"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="157"/>
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="151"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="157"/>
-      <c r="C11" s="157"/>
-      <c r="D11" s="157"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="157"/>
-      <c r="H11" s="157"/>
-      <c r="I11" s="157"/>
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="151"/>
+      <c r="I11" s="151"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="159" t="s">
+      <c r="E20" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="152"/>
+      <c r="F20" s="154"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="160" t="s">
+      <c r="E21" s="155" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="161"/>
+      <c r="F21" s="156"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="151"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="150"/>
-      <c r="F23" s="151"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="152" t="s">
+      <c r="E24" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="152"/>
+      <c r="F24" s="154"/>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="153" t="s">
+      <c r="E25" s="159" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="154"/>
+      <c r="F25" s="160"/>
     </row>
     <row r="26" spans="4:6" ht="15" customHeight="1">
       <c r="D26" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="153">
+      <c r="E26" s="159">
         <v>41734</v>
       </c>
-      <c r="F26" s="154"/>
+      <c r="F26" s="160"/>
     </row>
     <row r="27" spans="4:6" ht="15" customHeight="1">
       <c r="D27" s="101"/>
@@ -4932,17 +4940,17 @@
       <c r="F32" s="103"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="155" t="s">
+      <c r="A39" s="161" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="155"/>
-      <c r="C39" s="155"/>
-      <c r="D39" s="155"/>
-      <c r="E39" s="155"/>
-      <c r="F39" s="155"/>
-      <c r="G39" s="155"/>
-      <c r="H39" s="155"/>
-      <c r="I39" s="155"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
+      <c r="D39" s="161"/>
+      <c r="E39" s="161"/>
+      <c r="F39" s="161"/>
+      <c r="G39" s="161"/>
+      <c r="H39" s="161"/>
+      <c r="I39" s="161"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="58"/>
@@ -4952,16 +4960,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A39:I39"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A39:I39"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5015,25 +5023,25 @@
       <c r="A2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
       <c r="L2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
-      <c r="B3" s="209" t="s">
+      <c r="B3" s="221" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="216"/>
+      <c r="C3" s="210"/>
       <c r="D3" s="21" t="s">
         <v>130</v>
       </c>
@@ -5066,10 +5074,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B4" s="209" t="s">
+      <c r="B4" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="216"/>
+      <c r="C4" s="210"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -5088,7 +5096,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B5" s="213" t="s">
+      <c r="B5" s="230" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="124" t="s">
@@ -5117,7 +5125,7 @@
     </row>
     <row r="6" spans="1:13" s="132" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="214"/>
+      <c r="B6" s="231"/>
       <c r="C6" s="124" t="s">
         <v>333</v>
       </c>
@@ -5146,7 +5154,7 @@
     </row>
     <row r="7" spans="1:13" s="132" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="214"/>
+      <c r="B7" s="231"/>
       <c r="C7" s="124" t="s">
         <v>330</v>
       </c>
@@ -5172,7 +5180,7 @@
       <c r="M7" s="122"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B8" s="214"/>
+      <c r="B8" s="231"/>
       <c r="C8" s="124" t="s">
         <v>334</v>
       </c>
@@ -5198,7 +5206,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B9" s="214"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="124" t="s">
         <v>335</v>
       </c>
@@ -5220,7 +5228,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B10" s="215"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="136"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
@@ -5245,35 +5253,35 @@
       <c r="A12" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="221" t="s">
+      <c r="B12" s="224" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="212"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="212"/>
-      <c r="F12" s="212"/>
-      <c r="G12" s="212"/>
-      <c r="H12" s="212"/>
-      <c r="I12" s="212"/>
-      <c r="J12" s="212"/>
-      <c r="K12" s="212"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="225"/>
+      <c r="E12" s="225"/>
+      <c r="F12" s="225"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="225"/>
+      <c r="I12" s="225"/>
+      <c r="J12" s="225"/>
+      <c r="K12" s="225"/>
       <c r="L12" s="141"/>
     </row>
     <row r="13" spans="1:13" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="140"/>
-      <c r="B13" s="222" t="s">
+      <c r="B13" s="226" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="223"/>
-      <c r="D13" s="223"/>
-      <c r="E13" s="222" t="s">
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="226" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222" t="s">
+      <c r="F13" s="226"/>
+      <c r="G13" s="226" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="222"/>
+      <c r="H13" s="226"/>
       <c r="I13" s="27" t="s">
         <v>344</v>
       </c>
@@ -5286,13 +5294,13 @@
       <c r="B14" s="217" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="224"/>
-      <c r="D14" s="224"/>
+      <c r="C14" s="229"/>
+      <c r="D14" s="229"/>
       <c r="E14" s="217" t="s">
         <v>348</v>
       </c>
       <c r="F14" s="217"/>
-      <c r="G14" s="219">
+      <c r="G14" s="216">
         <v>41752</v>
       </c>
       <c r="H14" s="217"/>
@@ -5305,13 +5313,13 @@
       <c r="B15" s="217" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="224"/>
-      <c r="D15" s="224"/>
+      <c r="C15" s="229"/>
+      <c r="D15" s="229"/>
       <c r="E15" s="217" t="s">
         <v>350</v>
       </c>
       <c r="F15" s="217"/>
-      <c r="G15" s="219">
+      <c r="G15" s="216">
         <v>41749</v>
       </c>
       <c r="H15" s="217"/>
@@ -5324,13 +5332,13 @@
       <c r="B16" s="217" t="s">
         <v>347</v>
       </c>
-      <c r="C16" s="218"/>
-      <c r="D16" s="218"/>
+      <c r="C16" s="228"/>
+      <c r="D16" s="228"/>
       <c r="E16" s="217" t="s">
         <v>351</v>
       </c>
       <c r="F16" s="217"/>
-      <c r="G16" s="219">
+      <c r="G16" s="216">
         <v>41749</v>
       </c>
       <c r="H16" s="217"/>
@@ -5343,13 +5351,13 @@
       <c r="B17" s="217" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
+      <c r="C17" s="228"/>
+      <c r="D17" s="228"/>
       <c r="E17" s="217" t="s">
         <v>379</v>
       </c>
       <c r="F17" s="217"/>
-      <c r="G17" s="219">
+      <c r="G17" s="216">
         <v>41749</v>
       </c>
       <c r="H17" s="217"/>
@@ -5371,26 +5379,26 @@
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="212" t="s">
+      <c r="B20" s="225" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="212"/>
-      <c r="K20" s="212"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="225"/>
+      <c r="F20" s="225"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
       <c r="L20" s="109"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B21" s="209" t="s">
+      <c r="B21" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="210"/>
-      <c r="D21" s="211"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
       <c r="E21" s="62" t="s">
         <v>65</v>
       </c>
@@ -5411,11 +5419,11 @@
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="39">
-      <c r="B22" s="204" t="s">
+      <c r="B22" s="209" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="205"/>
-      <c r="D22" s="203"/>
+      <c r="C22" s="201"/>
+      <c r="D22" s="202"/>
       <c r="E22" s="124" t="s">
         <v>337</v>
       </c>
@@ -5437,149 +5445,149 @@
       <c r="A24" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="207" t="s">
+      <c r="B24" s="208" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="207"/>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
-      <c r="G24" s="207"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="207"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="208"/>
       <c r="L24" s="109"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B25" s="209" t="s">
+      <c r="B25" s="221" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="210"/>
-      <c r="D25" s="211"/>
-      <c r="E25" s="209" t="s">
+      <c r="C25" s="222"/>
+      <c r="D25" s="223"/>
+      <c r="E25" s="221" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="211"/>
-      <c r="G25" s="209" t="s">
+      <c r="F25" s="223"/>
+      <c r="G25" s="221" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="210"/>
-      <c r="I25" s="211"/>
-      <c r="J25" s="209" t="s">
+      <c r="H25" s="222"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="221" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="211"/>
+      <c r="K25" s="223"/>
       <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" ht="26.25" customHeight="1">
-      <c r="B26" s="208" t="s">
+      <c r="B26" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="205"/>
-      <c r="D26" s="203"/>
-      <c r="E26" s="208" t="s">
+      <c r="C26" s="201"/>
+      <c r="D26" s="202"/>
+      <c r="E26" s="207" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="203"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="201"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="203"/>
+      <c r="F26" s="202"/>
+      <c r="G26" s="213"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="215"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="202"/>
       <c r="L26" s="120"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1">
-      <c r="B27" s="204" t="s">
+      <c r="B27" s="209" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="205"/>
-      <c r="D27" s="203"/>
-      <c r="E27" s="206" t="s">
+      <c r="C27" s="201"/>
+      <c r="D27" s="202"/>
+      <c r="E27" s="200" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="203"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="200"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="202"/>
-      <c r="K27" s="203"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="213"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="215"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="202"/>
       <c r="L27" s="120"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1">
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="209" t="s">
         <v>316</v>
       </c>
-      <c r="C28" s="205"/>
-      <c r="D28" s="203"/>
-      <c r="E28" s="206">
+      <c r="C28" s="201"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="200">
         <v>5.5</v>
       </c>
-      <c r="F28" s="203"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="200"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="202"/>
-      <c r="K28" s="203"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="213"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="215"/>
+      <c r="J28" s="233"/>
+      <c r="K28" s="202"/>
       <c r="L28" s="120"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1">
-      <c r="B29" s="206" t="s">
+      <c r="B29" s="200" t="s">
         <v>336</v>
       </c>
-      <c r="C29" s="205"/>
-      <c r="D29" s="203"/>
-      <c r="E29" s="206">
+      <c r="C29" s="201"/>
+      <c r="D29" s="202"/>
+      <c r="E29" s="200">
         <v>1.7</v>
       </c>
-      <c r="F29" s="203"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="200"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="202"/>
-      <c r="K29" s="203"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="213"/>
+      <c r="H29" s="214"/>
+      <c r="I29" s="215"/>
+      <c r="J29" s="233"/>
+      <c r="K29" s="202"/>
       <c r="L29" s="120"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1">
-      <c r="B30" s="206"/>
-      <c r="C30" s="205"/>
-      <c r="D30" s="203"/>
-      <c r="E30" s="206"/>
-      <c r="F30" s="203"/>
-      <c r="G30" s="199"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="201"/>
-      <c r="J30" s="208"/>
-      <c r="K30" s="203"/>
+      <c r="B30" s="200"/>
+      <c r="C30" s="201"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="213"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="215"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="202"/>
       <c r="L30" s="120"/>
     </row>
     <row r="32" spans="1:12" ht="16.5" customHeight="1">
       <c r="A32" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="207" t="s">
+      <c r="B32" s="208" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="207"/>
-      <c r="D32" s="207"/>
-      <c r="E32" s="207"/>
-      <c r="F32" s="207"/>
-      <c r="G32" s="207"/>
-      <c r="H32" s="207"/>
-      <c r="I32" s="207"/>
-      <c r="J32" s="207"/>
-      <c r="K32" s="207"/>
+      <c r="C32" s="208"/>
+      <c r="D32" s="208"/>
+      <c r="E32" s="208"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
+      <c r="H32" s="208"/>
+      <c r="I32" s="208"/>
+      <c r="J32" s="208"/>
+      <c r="K32" s="208"/>
       <c r="L32" s="109"/>
     </row>
     <row r="33" spans="2:12" ht="16.5" customHeight="1">
       <c r="B33" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="225"/>
+      <c r="C33" s="199"/>
       <c r="D33" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="225"/>
+      <c r="E33" s="199"/>
       <c r="F33" s="194" t="s">
         <v>62</v>
       </c>
@@ -5589,71 +5597,71 @@
       <c r="J33" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="225"/>
+      <c r="K33" s="199"/>
       <c r="L33" s="121"/>
     </row>
     <row r="34" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="209" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="216"/>
-      <c r="D34" s="230">
+      <c r="C34" s="210"/>
+      <c r="D34" s="211">
         <v>1</v>
       </c>
-      <c r="E34" s="231"/>
-      <c r="F34" s="228"/>
-      <c r="G34" s="229"/>
-      <c r="H34" s="229"/>
-      <c r="I34" s="216"/>
-      <c r="J34" s="233" t="s">
+      <c r="E34" s="212"/>
+      <c r="F34" s="219"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="205" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="234"/>
+      <c r="K34" s="206"/>
       <c r="L34" s="109"/>
     </row>
     <row r="35" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B35" s="206" t="s">
+      <c r="B35" s="200" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="216"/>
-      <c r="D35" s="230">
+      <c r="C35" s="210"/>
+      <c r="D35" s="211">
         <v>1</v>
       </c>
-      <c r="E35" s="231"/>
-      <c r="F35" s="228"/>
-      <c r="G35" s="229"/>
-      <c r="H35" s="229"/>
-      <c r="I35" s="216"/>
-      <c r="J35" s="233" t="s">
+      <c r="E35" s="212"/>
+      <c r="F35" s="219"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="210"/>
+      <c r="J35" s="205" t="s">
         <v>318</v>
       </c>
-      <c r="K35" s="234"/>
+      <c r="K35" s="206"/>
       <c r="L35" s="121"/>
     </row>
     <row r="36" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B36" s="230"/>
-      <c r="C36" s="231"/>
-      <c r="D36" s="230"/>
-      <c r="E36" s="231"/>
-      <c r="F36" s="228"/>
-      <c r="G36" s="229"/>
-      <c r="H36" s="229"/>
-      <c r="I36" s="216"/>
-      <c r="J36" s="230"/>
-      <c r="K36" s="234"/>
+      <c r="B36" s="211"/>
+      <c r="C36" s="212"/>
+      <c r="D36" s="211"/>
+      <c r="E36" s="212"/>
+      <c r="F36" s="219"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="206"/>
       <c r="L36" s="109"/>
     </row>
     <row r="37" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B37" s="226"/>
-      <c r="C37" s="227"/>
-      <c r="D37" s="226"/>
-      <c r="E37" s="227"/>
-      <c r="F37" s="228"/>
-      <c r="G37" s="229"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="216"/>
-      <c r="J37" s="226"/>
-      <c r="K37" s="232"/>
+      <c r="B37" s="203"/>
+      <c r="C37" s="218"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="218"/>
+      <c r="F37" s="219"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="210"/>
+      <c r="J37" s="203"/>
+      <c r="K37" s="204"/>
       <c r="L37" s="121"/>
     </row>
     <row r="38" spans="2:12" ht="16.5" customHeight="1">
@@ -5661,6 +5669,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="J37:K37"/>
@@ -5677,60 +5739,6 @@
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="E30:F30"/>
     <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B12:K12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
@@ -5762,8 +5770,8 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5794,14 +5802,14 @@
       <c r="A2" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="238" t="s">
+      <c r="B2" s="237" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="237"/>
+      <c r="E2" s="237"/>
+      <c r="F2" s="237"/>
+      <c r="G2" s="237"/>
     </row>
     <row r="3" spans="1:8" ht="13">
       <c r="B3" s="27" t="s">
@@ -5899,14 +5907,14 @@
       <c r="A8" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="239" t="s">
+      <c r="B8" s="238" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="238"/>
-      <c r="G8" s="238"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="B9" s="27" t="s">
@@ -5915,10 +5923,10 @@
       <c r="C9" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="240" t="s">
+      <c r="D9" s="239" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="241"/>
+      <c r="E9" s="240"/>
       <c r="F9" s="85" t="s">
         <v>173</v>
       </c>
@@ -5975,7 +5983,7 @@
       <c r="C13" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="237" t="s">
+      <c r="D13" s="241" t="s">
         <v>170</v>
       </c>
       <c r="E13" s="236"/>
@@ -6035,7 +6043,7 @@
       <c r="C17" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="237" t="s">
+      <c r="D17" s="241" t="s">
         <v>174</v>
       </c>
       <c r="E17" s="236"/>
@@ -6060,17 +6068,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C10:D18 F10:F18">
@@ -6143,7 +6151,7 @@
       <c r="A3" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="242" t="s">
+      <c r="B3" s="259" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="191"/>
@@ -6152,14 +6160,14 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="B4" s="245" t="s">
+      <c r="B4" s="261" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247"/>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247"/>
+      <c r="C4" s="258"/>
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
     </row>
     <row r="5" spans="1:8" ht="8.25" customHeight="1">
       <c r="B5" s="74"/>
@@ -6169,10 +6177,10 @@
       <c r="A6" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="244" t="s">
+      <c r="B6" s="243" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="244"/>
+      <c r="C6" s="243"/>
       <c r="E6" s="18"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6182,28 +6190,28 @@
       <c r="A7" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="256" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1">
       <c r="A8" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="244" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
+      <c r="C8" s="244"/>
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="244"/>
+      <c r="G8" s="244"/>
       <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1">
@@ -6216,54 +6224,54 @@
       <c r="C9" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="249" t="s">
+      <c r="D9" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="244"/>
       <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="250" t="s">
+      <c r="B10" s="245" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="244"/>
       <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="250" t="s">
+      <c r="B11" s="245" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="249"/>
-      <c r="D11" s="249"/>
-      <c r="E11" s="249"/>
-      <c r="F11" s="249"/>
-      <c r="G11" s="249"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
       <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="249" t="s">
+      <c r="B12" s="244" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="249"/>
-      <c r="D12" s="249"/>
-      <c r="E12" s="249"/>
-      <c r="F12" s="249"/>
-      <c r="G12" s="249"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="244"/>
+      <c r="F12" s="244"/>
+      <c r="G12" s="244"/>
     </row>
     <row r="13" spans="1:8" ht="13">
       <c r="B13" s="74"/>
@@ -6273,34 +6281,34 @@
       <c r="A14" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="260" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="244"/>
+      <c r="C14" s="243"/>
       <c r="E14" s="18"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1">
-      <c r="B15" s="262" t="s">
+      <c r="B15" s="257" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="246" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="251"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="246"/>
+      <c r="G16" s="246"/>
     </row>
     <row r="17" spans="2:7" ht="23" customHeight="1">
       <c r="B17" s="83" t="s">
@@ -6309,12 +6317,12 @@
       <c r="C17" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="252" t="s">
+      <c r="D17" s="247" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="253"/>
-      <c r="F17" s="253"/>
-      <c r="G17" s="253"/>
+      <c r="E17" s="248"/>
+      <c r="F17" s="248"/>
+      <c r="G17" s="248"/>
     </row>
     <row r="18" spans="2:7" ht="23" customHeight="1">
       <c r="B18" s="147" t="s">
@@ -6323,10 +6331,10 @@
       <c r="C18" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="259"/>
-      <c r="E18" s="260"/>
-      <c r="F18" s="260"/>
-      <c r="G18" s="260"/>
+      <c r="D18" s="254"/>
+      <c r="E18" s="255"/>
+      <c r="F18" s="255"/>
+      <c r="G18" s="255"/>
     </row>
     <row r="19" spans="2:7" ht="23" customHeight="1">
       <c r="B19" s="147" t="s">
@@ -6335,10 +6343,10 @@
       <c r="C19" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="254"/>
-      <c r="E19" s="255"/>
-      <c r="F19" s="255"/>
-      <c r="G19" s="255"/>
+      <c r="D19" s="249"/>
+      <c r="E19" s="250"/>
+      <c r="F19" s="250"/>
+      <c r="G19" s="250"/>
     </row>
     <row r="20" spans="2:7" ht="23" customHeight="1">
       <c r="B20" s="147" t="s">
@@ -6347,10 +6355,10 @@
       <c r="C20" s="138" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="256"/>
-      <c r="E20" s="257"/>
-      <c r="F20" s="257"/>
-      <c r="G20" s="258"/>
+      <c r="D20" s="251"/>
+      <c r="E20" s="252"/>
+      <c r="F20" s="252"/>
+      <c r="G20" s="253"/>
     </row>
     <row r="21" spans="2:7" ht="23" customHeight="1">
       <c r="B21" s="21" t="s">
@@ -6359,29 +6367,34 @@
       <c r="C21" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="248"/>
-      <c r="E21" s="248"/>
-      <c r="F21" s="248"/>
-      <c r="G21" s="248"/>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
     </row>
     <row r="22" spans="2:7" ht="23" customHeight="1">
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
-      <c r="D22" s="248"/>
-      <c r="E22" s="248"/>
-      <c r="F22" s="248"/>
-      <c r="G22" s="248"/>
+      <c r="D22" s="242"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
     </row>
     <row r="23" spans="2:7" ht="23" customHeight="1">
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
-      <c r="D23" s="248"/>
-      <c r="E23" s="248"/>
-      <c r="F23" s="248"/>
-      <c r="G23" s="248"/>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:G4"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:G8"/>
@@ -6398,11 +6411,6 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B15:G15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6464,173 +6472,173 @@
       <c r="J2" s="263"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="B3" s="251" t="s">
+      <c r="B3" s="246" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="251"/>
-      <c r="D3" s="251"/>
-      <c r="E3" s="251"/>
-      <c r="F3" s="251"/>
-      <c r="G3" s="251"/>
-      <c r="H3" s="251"/>
-      <c r="I3" s="251"/>
-      <c r="J3" s="251"/>
+      <c r="C3" s="246"/>
+      <c r="D3" s="246"/>
+      <c r="E3" s="246"/>
+      <c r="F3" s="246"/>
+      <c r="G3" s="246"/>
+      <c r="H3" s="246"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="251" t="s">
+      <c r="B4" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="251"/>
-      <c r="D4" s="251"/>
-      <c r="E4" s="251"/>
-      <c r="F4" s="251"/>
-      <c r="G4" s="251"/>
-      <c r="H4" s="251"/>
-      <c r="I4" s="251"/>
-      <c r="J4" s="251"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="246"/>
+      <c r="E4" s="246"/>
+      <c r="F4" s="246"/>
+      <c r="G4" s="246"/>
+      <c r="H4" s="246"/>
+      <c r="I4" s="246"/>
+      <c r="J4" s="246"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="251" t="s">
+      <c r="B5" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="251"/>
+      <c r="C5" s="246"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="246"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
-      <c r="B6" s="251" t="s">
+      <c r="B6" s="246" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="251"/>
-      <c r="D6" s="251"/>
-      <c r="E6" s="251"/>
-      <c r="F6" s="251"/>
-      <c r="G6" s="251"/>
-      <c r="H6" s="251"/>
-      <c r="I6" s="251"/>
-      <c r="J6" s="251"/>
+      <c r="C6" s="246"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="246"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="251" t="s">
+      <c r="B7" s="246" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="251"/>
-      <c r="D7" s="251"/>
-      <c r="E7" s="251"/>
-      <c r="F7" s="251"/>
-      <c r="G7" s="251"/>
-      <c r="H7" s="251"/>
-      <c r="I7" s="251"/>
-      <c r="J7" s="251"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="246"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="246"/>
+      <c r="J7" s="246"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="251" t="s">
+      <c r="B8" s="246" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="251"/>
-      <c r="D8" s="251"/>
-      <c r="E8" s="251"/>
-      <c r="F8" s="251"/>
-      <c r="G8" s="251"/>
-      <c r="H8" s="251"/>
-      <c r="I8" s="251"/>
-      <c r="J8" s="251"/>
+      <c r="C8" s="246"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="246"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="246"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="251" t="s">
+      <c r="B9" s="246" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="251"/>
-      <c r="D9" s="251"/>
-      <c r="E9" s="251"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="251"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="251" t="s">
+      <c r="B10" s="246" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="251"/>
-      <c r="D10" s="251"/>
-      <c r="E10" s="251"/>
-      <c r="F10" s="251"/>
-      <c r="G10" s="251"/>
-      <c r="H10" s="251"/>
-      <c r="I10" s="251"/>
-      <c r="J10" s="251"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="246"/>
+      <c r="E10" s="246"/>
+      <c r="F10" s="246"/>
+      <c r="G10" s="246"/>
+      <c r="H10" s="246"/>
+      <c r="I10" s="246"/>
+      <c r="J10" s="246"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="251" t="s">
+      <c r="B11" s="246" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="251"/>
-      <c r="D11" s="251"/>
-      <c r="E11" s="251"/>
-      <c r="F11" s="251"/>
-      <c r="G11" s="251"/>
-      <c r="H11" s="251"/>
-      <c r="I11" s="251"/>
-      <c r="J11" s="251"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="246"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="251" t="s">
+      <c r="B12" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="251"/>
-      <c r="D12" s="251"/>
-      <c r="E12" s="251"/>
-      <c r="F12" s="251"/>
-      <c r="G12" s="251"/>
-      <c r="H12" s="251"/>
-      <c r="I12" s="251"/>
-      <c r="J12" s="251"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="246"/>
+      <c r="E12" s="246"/>
+      <c r="F12" s="246"/>
+      <c r="G12" s="246"/>
+      <c r="H12" s="246"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="251" t="s">
+      <c r="B13" s="246" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="251"/>
-      <c r="D13" s="251"/>
-      <c r="E13" s="251"/>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
+      <c r="C13" s="246"/>
+      <c r="D13" s="246"/>
+      <c r="E13" s="246"/>
+      <c r="F13" s="246"/>
+      <c r="G13" s="246"/>
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="246" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="251"/>
+      <c r="C14" s="246"/>
+      <c r="D14" s="246"/>
+      <c r="E14" s="246"/>
+      <c r="F14" s="246"/>
+      <c r="G14" s="246"/>
+      <c r="H14" s="246"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="246" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="246"/>
+      <c r="J15" s="246"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
@@ -6649,17 +6657,17 @@
       <c r="J17" s="263"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1">
-      <c r="B18" s="251" t="s">
+      <c r="B18" s="246" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="251"/>
-      <c r="D18" s="251"/>
-      <c r="E18" s="251"/>
-      <c r="F18" s="251"/>
-      <c r="G18" s="251"/>
-      <c r="H18" s="251"/>
-      <c r="I18" s="251"/>
-      <c r="J18" s="251"/>
+      <c r="C18" s="246"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="246"/>
+      <c r="F18" s="246"/>
+      <c r="G18" s="246"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="246"/>
+      <c r="J18" s="246"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
@@ -6678,17 +6686,17 @@
       <c r="J20" s="263"/>
     </row>
     <row r="21" spans="1:10" ht="101.25" customHeight="1">
-      <c r="B21" s="251" t="s">
+      <c r="B21" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
-      <c r="H21" s="251"/>
-      <c r="I21" s="251"/>
-      <c r="J21" s="251"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="246"/>
+      <c r="E21" s="246"/>
+      <c r="F21" s="246"/>
+      <c r="G21" s="246"/>
+      <c r="H21" s="246"/>
+      <c r="I21" s="246"/>
+      <c r="J21" s="246"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
@@ -6699,28 +6707,28 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B24" s="251" t="s">
+      <c r="B24" s="246" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="251"/>
-      <c r="D24" s="251"/>
-      <c r="E24" s="251"/>
-      <c r="F24" s="251"/>
-      <c r="G24" s="251"/>
-      <c r="H24" s="251"/>
-      <c r="I24" s="251"/>
-      <c r="J24" s="251"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="246"/>
+      <c r="G24" s="246"/>
+      <c r="H24" s="246"/>
+      <c r="I24" s="246"/>
+      <c r="J24" s="246"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="251"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="251"/>
-      <c r="E25" s="251"/>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="251"/>
-      <c r="J25" s="251"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="246"/>
+      <c r="G25" s="246"/>
+      <c r="H25" s="246"/>
+      <c r="I25" s="246"/>
+      <c r="J25" s="246"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
@@ -6731,17 +6739,17 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="76.5" customHeight="1">
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="246" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
-      <c r="G27" s="251"/>
-      <c r="H27" s="251"/>
-      <c r="I27" s="251"/>
-      <c r="J27" s="251"/>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
+      <c r="G27" s="246"/>
+      <c r="H27" s="246"/>
+      <c r="I27" s="246"/>
+      <c r="J27" s="246"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
@@ -6752,27 +6760,28 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="33" customHeight="1">
-      <c r="B30" s="251" t="s">
+      <c r="B30" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="251"/>
-      <c r="D30" s="251"/>
-      <c r="E30" s="251"/>
-      <c r="F30" s="251"/>
-      <c r="G30" s="251"/>
-      <c r="H30" s="251"/>
-      <c r="I30" s="251"/>
-      <c r="J30" s="251"/>
+      <c r="C30" s="246"/>
+      <c r="D30" s="246"/>
+      <c r="E30" s="246"/>
+      <c r="F30" s="246"/>
+      <c r="G30" s="246"/>
+      <c r="H30" s="246"/>
+      <c r="I30" s="246"/>
+      <c r="J30" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B9:J9"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="B2:J2"/>
     <mergeCell ref="B21:J21"/>
     <mergeCell ref="B18:J18"/>
     <mergeCell ref="B20:J20"/>
@@ -6781,14 +6790,13 @@
     <mergeCell ref="B27:J27"/>
     <mergeCell ref="B25:J25"/>
     <mergeCell ref="B24:J24"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B9:J9"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/工程管理/项目总体计划V1.0.xlsx
+++ b/工程管理/项目总体计划V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620" tabRatio="827" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15560" tabRatio="827" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="18" r:id="rId1"/>
@@ -3716,6 +3716,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3728,30 +3746,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="55" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3863,19 +3863,103 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3888,95 +3972,14 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3989,15 +3992,27 @@
     <xf numFmtId="0" fontId="38" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4039,21 +4054,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="43" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4825,89 +4825,89 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:9" ht="32.25" customHeight="1">
-      <c r="A10" s="150" t="s">
+      <c r="A10" s="156" t="s">
         <v>321</v>
       </c>
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="151"/>
-      <c r="G10" s="151"/>
-      <c r="H10" s="151"/>
-      <c r="I10" s="151"/>
+      <c r="B10" s="157"/>
+      <c r="C10" s="157"/>
+      <c r="D10" s="157"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="157"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="157"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1">
-      <c r="A11" s="152" t="s">
+      <c r="A11" s="158" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="151"/>
-      <c r="I11" s="151"/>
+      <c r="B11" s="157"/>
+      <c r="C11" s="157"/>
+      <c r="D11" s="157"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="157"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="157"/>
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="E20" s="153" t="s">
+      <c r="E20" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="154"/>
+      <c r="F20" s="152"/>
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="E21" s="155" t="s">
+      <c r="E21" s="160" t="s">
         <v>294</v>
       </c>
-      <c r="F21" s="156"/>
+      <c r="F21" s="161"/>
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="100" t="s">
         <v>208</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="151"/>
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="100" t="s">
         <v>209</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="151"/>
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="100" t="s">
         <v>210</v>
       </c>
-      <c r="E24" s="154" t="s">
+      <c r="E24" s="152" t="s">
         <v>211</v>
       </c>
-      <c r="F24" s="154"/>
+      <c r="F24" s="152"/>
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="100" t="s">
         <v>212</v>
       </c>
-      <c r="E25" s="159" t="s">
+      <c r="E25" s="153" t="s">
         <v>214</v>
       </c>
-      <c r="F25" s="160"/>
+      <c r="F25" s="154"/>
     </row>
     <row r="26" spans="4:6" ht="15" customHeight="1">
       <c r="D26" s="100" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="159">
+      <c r="E26" s="153">
         <v>41734</v>
       </c>
-      <c r="F26" s="160"/>
+      <c r="F26" s="154"/>
     </row>
     <row r="27" spans="4:6" ht="15" customHeight="1">
       <c r="D27" s="101"/>
@@ -4940,17 +4940,17 @@
       <c r="F32" s="103"/>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="161" t="s">
+      <c r="A39" s="155" t="s">
         <v>188</v>
       </c>
-      <c r="B39" s="161"/>
-      <c r="C39" s="161"/>
-      <c r="D39" s="161"/>
-      <c r="E39" s="161"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="58"/>
@@ -4960,16 +4960,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4988,7 +4988,7 @@
   <sheetPr codeName="Sheet11" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G17" sqref="G17:H17"/>
     </sheetView>
   </sheetViews>
@@ -5023,25 +5023,25 @@
       <c r="A2" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="207" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
       <c r="L2" s="109"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1">
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="209" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="210"/>
+      <c r="C3" s="217"/>
       <c r="D3" s="21" t="s">
         <v>130</v>
       </c>
@@ -5074,10 +5074,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="210"/>
+      <c r="C4" s="217"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -5096,7 +5096,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B5" s="230" t="s">
+      <c r="B5" s="214" t="s">
         <v>101</v>
       </c>
       <c r="C5" s="124" t="s">
@@ -5125,7 +5125,7 @@
     </row>
     <row r="6" spans="1:13" s="132" customFormat="1" ht="16.5" customHeight="1">
       <c r="A6" s="129"/>
-      <c r="B6" s="231"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="124" t="s">
         <v>333</v>
       </c>
@@ -5154,7 +5154,7 @@
     </row>
     <row r="7" spans="1:13" s="132" customFormat="1" ht="16.5" customHeight="1">
       <c r="A7" s="129"/>
-      <c r="B7" s="231"/>
+      <c r="B7" s="215"/>
       <c r="C7" s="124" t="s">
         <v>330</v>
       </c>
@@ -5180,7 +5180,7 @@
       <c r="M7" s="122"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B8" s="231"/>
+      <c r="B8" s="215"/>
       <c r="C8" s="124" t="s">
         <v>334</v>
       </c>
@@ -5206,7 +5206,7 @@
       <c r="M8" s="122"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B9" s="231"/>
+      <c r="B9" s="215"/>
       <c r="C9" s="124" t="s">
         <v>335</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="M9" s="122"/>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
-      <c r="B10" s="232"/>
+      <c r="B10" s="216"/>
       <c r="C10" s="136"/>
       <c r="D10" s="66"/>
       <c r="E10" s="66"/>
@@ -5253,35 +5253,35 @@
       <c r="A12" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="224" t="s">
+      <c r="B12" s="221" t="s">
         <v>341</v>
       </c>
-      <c r="C12" s="225"/>
-      <c r="D12" s="225"/>
-      <c r="E12" s="225"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="225"/>
-      <c r="H12" s="225"/>
-      <c r="I12" s="225"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="225"/>
+      <c r="C12" s="213"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
       <c r="L12" s="141"/>
     </row>
     <row r="13" spans="1:13" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A13" s="140"/>
-      <c r="B13" s="226" t="s">
+      <c r="B13" s="222" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="226" t="s">
+      <c r="C13" s="223"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="222" t="s">
         <v>346</v>
       </c>
-      <c r="F13" s="226"/>
-      <c r="G13" s="226" t="s">
+      <c r="F13" s="222"/>
+      <c r="G13" s="222" t="s">
         <v>343</v>
       </c>
-      <c r="H13" s="226"/>
+      <c r="H13" s="222"/>
       <c r="I13" s="27" t="s">
         <v>344</v>
       </c>
@@ -5291,76 +5291,76 @@
     </row>
     <row r="14" spans="1:13" s="142" customFormat="1" ht="28" customHeight="1">
       <c r="A14" s="140"/>
-      <c r="B14" s="217" t="s">
+      <c r="B14" s="218" t="s">
         <v>345</v>
       </c>
-      <c r="C14" s="229"/>
-      <c r="D14" s="229"/>
-      <c r="E14" s="217" t="s">
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="218" t="s">
         <v>348</v>
       </c>
-      <c r="F14" s="217"/>
-      <c r="G14" s="216">
+      <c r="F14" s="218"/>
+      <c r="G14" s="220">
         <v>41752</v>
       </c>
-      <c r="H14" s="217"/>
+      <c r="H14" s="218"/>
       <c r="I14" s="124" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="142" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="140"/>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="218" t="s">
         <v>349</v>
       </c>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="217" t="s">
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="218" t="s">
         <v>350</v>
       </c>
-      <c r="F15" s="217"/>
-      <c r="G15" s="216">
+      <c r="F15" s="218"/>
+      <c r="G15" s="220">
         <v>41749</v>
       </c>
-      <c r="H15" s="217"/>
+      <c r="H15" s="218"/>
       <c r="I15" s="124" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="149" customFormat="1" ht="45" customHeight="1">
       <c r="A16" s="148"/>
-      <c r="B16" s="217" t="s">
+      <c r="B16" s="218" t="s">
         <v>347</v>
       </c>
-      <c r="C16" s="228"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="217" t="s">
+      <c r="C16" s="219"/>
+      <c r="D16" s="219"/>
+      <c r="E16" s="218" t="s">
         <v>351</v>
       </c>
-      <c r="F16" s="217"/>
-      <c r="G16" s="216">
+      <c r="F16" s="218"/>
+      <c r="G16" s="220">
         <v>41749</v>
       </c>
-      <c r="H16" s="217"/>
+      <c r="H16" s="218"/>
       <c r="I16" s="124" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="142" customFormat="1" ht="45" customHeight="1">
       <c r="A17" s="140"/>
-      <c r="B17" s="217" t="s">
+      <c r="B17" s="218" t="s">
         <v>378</v>
       </c>
-      <c r="C17" s="228"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="217" t="s">
+      <c r="C17" s="219"/>
+      <c r="D17" s="219"/>
+      <c r="E17" s="218" t="s">
         <v>379</v>
       </c>
-      <c r="F17" s="217"/>
-      <c r="G17" s="216">
+      <c r="F17" s="218"/>
+      <c r="G17" s="220">
         <v>41749</v>
       </c>
-      <c r="H17" s="217"/>
+      <c r="H17" s="218"/>
       <c r="I17" s="124" t="s">
         <v>332</v>
       </c>
@@ -5379,26 +5379,26 @@
       <c r="A20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="225" t="s">
+      <c r="B20" s="213" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="225"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="225"/>
-      <c r="F20" s="225"/>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
+      <c r="J20" s="213"/>
+      <c r="K20" s="213"/>
       <c r="L20" s="109"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="209" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="222"/>
-      <c r="D21" s="223"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
       <c r="E21" s="62" t="s">
         <v>65</v>
       </c>
@@ -5419,11 +5419,11 @@
       <c r="L21" s="37"/>
     </row>
     <row r="22" spans="1:12" ht="39">
-      <c r="B22" s="209" t="s">
+      <c r="B22" s="204" t="s">
         <v>314</v>
       </c>
-      <c r="C22" s="201"/>
-      <c r="D22" s="202"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="203"/>
       <c r="E22" s="124" t="s">
         <v>337</v>
       </c>
@@ -5445,149 +5445,149 @@
       <c r="A24" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B24" s="208" t="s">
+      <c r="B24" s="207" t="s">
         <v>155</v>
       </c>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="208"/>
+      <c r="C24" s="207"/>
+      <c r="D24" s="207"/>
+      <c r="E24" s="207"/>
+      <c r="F24" s="207"/>
+      <c r="G24" s="207"/>
+      <c r="H24" s="207"/>
+      <c r="I24" s="207"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="207"/>
       <c r="L24" s="109"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" customHeight="1">
-      <c r="B25" s="221" t="s">
+      <c r="B25" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="222"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="221" t="s">
+      <c r="C25" s="210"/>
+      <c r="D25" s="211"/>
+      <c r="E25" s="209" t="s">
         <v>105</v>
       </c>
-      <c r="F25" s="223"/>
-      <c r="G25" s="221" t="s">
+      <c r="F25" s="211"/>
+      <c r="G25" s="209" t="s">
         <v>106</v>
       </c>
-      <c r="H25" s="222"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="221" t="s">
+      <c r="H25" s="210"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="223"/>
+      <c r="K25" s="211"/>
       <c r="L25" s="119"/>
     </row>
     <row r="26" spans="1:12" ht="26.25" customHeight="1">
-      <c r="B26" s="207" t="s">
+      <c r="B26" s="208" t="s">
         <v>272</v>
       </c>
-      <c r="C26" s="201"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="207" t="s">
+      <c r="C26" s="205"/>
+      <c r="D26" s="203"/>
+      <c r="E26" s="208" t="s">
         <v>273</v>
       </c>
-      <c r="F26" s="202"/>
-      <c r="G26" s="213"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="215"/>
-      <c r="J26" s="234"/>
-      <c r="K26" s="202"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="199"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="201"/>
+      <c r="J26" s="212"/>
+      <c r="K26" s="203"/>
       <c r="L26" s="120"/>
     </row>
     <row r="27" spans="1:12" ht="24" customHeight="1">
-      <c r="B27" s="209" t="s">
+      <c r="B27" s="204" t="s">
         <v>315</v>
       </c>
-      <c r="C27" s="201"/>
-      <c r="D27" s="202"/>
-      <c r="E27" s="200" t="s">
+      <c r="C27" s="205"/>
+      <c r="D27" s="203"/>
+      <c r="E27" s="206" t="s">
         <v>352</v>
       </c>
-      <c r="F27" s="202"/>
-      <c r="G27" s="213"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="215"/>
-      <c r="J27" s="233"/>
-      <c r="K27" s="202"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="200"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="202"/>
+      <c r="K27" s="203"/>
       <c r="L27" s="120"/>
     </row>
     <row r="28" spans="1:12" ht="24" customHeight="1">
-      <c r="B28" s="209" t="s">
+      <c r="B28" s="204" t="s">
         <v>316</v>
       </c>
-      <c r="C28" s="201"/>
-      <c r="D28" s="202"/>
-      <c r="E28" s="200">
+      <c r="C28" s="205"/>
+      <c r="D28" s="203"/>
+      <c r="E28" s="206">
         <v>5.5</v>
       </c>
-      <c r="F28" s="202"/>
-      <c r="G28" s="213"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="215"/>
-      <c r="J28" s="233"/>
-      <c r="K28" s="202"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="200"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="202"/>
+      <c r="K28" s="203"/>
       <c r="L28" s="120"/>
     </row>
     <row r="29" spans="1:12" ht="24" customHeight="1">
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="206" t="s">
         <v>336</v>
       </c>
-      <c r="C29" s="201"/>
-      <c r="D29" s="202"/>
-      <c r="E29" s="200">
+      <c r="C29" s="205"/>
+      <c r="D29" s="203"/>
+      <c r="E29" s="206">
         <v>1.7</v>
       </c>
-      <c r="F29" s="202"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="214"/>
-      <c r="I29" s="215"/>
-      <c r="J29" s="233"/>
-      <c r="K29" s="202"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="200"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="202"/>
+      <c r="K29" s="203"/>
       <c r="L29" s="120"/>
     </row>
     <row r="30" spans="1:12" ht="24" customHeight="1">
-      <c r="B30" s="200"/>
-      <c r="C30" s="201"/>
-      <c r="D30" s="202"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="213"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="215"/>
-      <c r="J30" s="207"/>
-      <c r="K30" s="202"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="205"/>
+      <c r="D30" s="203"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="199"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="208"/>
+      <c r="K30" s="203"/>
       <c r="L30" s="120"/>
     </row>
     <row r="32" spans="1:12" ht="16.5" customHeight="1">
       <c r="A32" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="208" t="s">
+      <c r="B32" s="207" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="208"/>
-      <c r="D32" s="208"/>
-      <c r="E32" s="208"/>
-      <c r="F32" s="208"/>
-      <c r="G32" s="208"/>
-      <c r="H32" s="208"/>
-      <c r="I32" s="208"/>
-      <c r="J32" s="208"/>
-      <c r="K32" s="208"/>
+      <c r="C32" s="207"/>
+      <c r="D32" s="207"/>
+      <c r="E32" s="207"/>
+      <c r="F32" s="207"/>
+      <c r="G32" s="207"/>
+      <c r="H32" s="207"/>
+      <c r="I32" s="207"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="207"/>
       <c r="L32" s="109"/>
     </row>
     <row r="33" spans="2:12" ht="16.5" customHeight="1">
       <c r="B33" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="199"/>
+      <c r="C33" s="225"/>
       <c r="D33" s="194" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="199"/>
+      <c r="E33" s="225"/>
       <c r="F33" s="194" t="s">
         <v>62</v>
       </c>
@@ -5597,71 +5597,71 @@
       <c r="J33" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="K33" s="199"/>
+      <c r="K33" s="225"/>
       <c r="L33" s="121"/>
     </row>
     <row r="34" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="204" t="s">
         <v>270</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="211">
+      <c r="C34" s="217"/>
+      <c r="D34" s="230">
         <v>1</v>
       </c>
-      <c r="E34" s="212"/>
-      <c r="F34" s="219"/>
-      <c r="G34" s="220"/>
-      <c r="H34" s="220"/>
-      <c r="I34" s="210"/>
-      <c r="J34" s="205" t="s">
+      <c r="E34" s="231"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="229"/>
+      <c r="H34" s="229"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="233" t="s">
         <v>317</v>
       </c>
-      <c r="K34" s="206"/>
+      <c r="K34" s="234"/>
       <c r="L34" s="109"/>
     </row>
     <row r="35" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B35" s="200" t="s">
+      <c r="B35" s="206" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="210"/>
-      <c r="D35" s="211">
+      <c r="C35" s="217"/>
+      <c r="D35" s="230">
         <v>1</v>
       </c>
-      <c r="E35" s="212"/>
-      <c r="F35" s="219"/>
-      <c r="G35" s="220"/>
-      <c r="H35" s="220"/>
-      <c r="I35" s="210"/>
-      <c r="J35" s="205" t="s">
+      <c r="E35" s="231"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="229"/>
+      <c r="H35" s="229"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="233" t="s">
         <v>318</v>
       </c>
-      <c r="K35" s="206"/>
+      <c r="K35" s="234"/>
       <c r="L35" s="121"/>
     </row>
     <row r="36" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B36" s="211"/>
-      <c r="C36" s="212"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="212"/>
-      <c r="F36" s="219"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="220"/>
-      <c r="I36" s="210"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="206"/>
+      <c r="B36" s="230"/>
+      <c r="C36" s="231"/>
+      <c r="D36" s="230"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="229"/>
+      <c r="H36" s="229"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="234"/>
       <c r="L36" s="109"/>
     </row>
     <row r="37" spans="2:12" ht="16.5" customHeight="1">
-      <c r="B37" s="203"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="218"/>
-      <c r="F37" s="219"/>
-      <c r="G37" s="220"/>
-      <c r="H37" s="220"/>
-      <c r="I37" s="210"/>
-      <c r="J37" s="203"/>
-      <c r="K37" s="204"/>
+      <c r="B37" s="226"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="226"/>
+      <c r="E37" s="227"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="229"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="226"/>
+      <c r="K37" s="232"/>
       <c r="L37" s="121"/>
     </row>
     <row r="38" spans="2:12" ht="16.5" customHeight="1">
@@ -5669,28 +5669,38 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F34:I34"/>
+    <mergeCell ref="F35:I35"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
@@ -5707,38 +5717,28 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F34:I34"/>
-    <mergeCell ref="F35:I35"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:K28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="3">
@@ -5770,8 +5770,8 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0"/>
@@ -5802,14 +5802,14 @@
       <c r="A2" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="237" t="s">
+      <c r="B2" s="238" t="s">
         <v>177</v>
       </c>
-      <c r="C2" s="237"/>
-      <c r="D2" s="237"/>
-      <c r="E2" s="237"/>
-      <c r="F2" s="237"/>
-      <c r="G2" s="237"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="238"/>
+      <c r="E2" s="238"/>
+      <c r="F2" s="238"/>
+      <c r="G2" s="238"/>
     </row>
     <row r="3" spans="1:8" ht="13">
       <c r="B3" s="27" t="s">
@@ -5907,14 +5907,14 @@
       <c r="A8" s="88" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="238" t="s">
+      <c r="B8" s="239" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="237"/>
+      <c r="C8" s="238"/>
+      <c r="D8" s="238"/>
+      <c r="E8" s="238"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="238"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
       <c r="B9" s="27" t="s">
@@ -5923,10 +5923,10 @@
       <c r="C9" s="85" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="239" t="s">
+      <c r="D9" s="240" t="s">
         <v>171</v>
       </c>
-      <c r="E9" s="240"/>
+      <c r="E9" s="241"/>
       <c r="F9" s="85" t="s">
         <v>173</v>
       </c>
@@ -5983,7 +5983,7 @@
       <c r="C13" s="86" t="s">
         <v>160</v>
       </c>
-      <c r="D13" s="241" t="s">
+      <c r="D13" s="237" t="s">
         <v>170</v>
       </c>
       <c r="E13" s="236"/>
@@ -6043,7 +6043,7 @@
       <c r="C17" s="86" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="241" t="s">
+      <c r="D17" s="237" t="s">
         <v>174</v>
       </c>
       <c r="E17" s="236"/>
@@ -6068,17 +6068,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="C10:D18 F10:F18">
@@ -6151,7 +6151,7 @@
       <c r="A3" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="B3" s="259" t="s">
+      <c r="B3" s="242" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="191"/>
@@ -6160,14 +6160,14 @@
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="51" customHeight="1">
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="245" t="s">
         <v>182</v>
       </c>
-      <c r="C4" s="258"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
+      <c r="C4" s="246"/>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
     </row>
     <row r="5" spans="1:8" ht="8.25" customHeight="1">
       <c r="B5" s="74"/>
@@ -6177,10 +6177,10 @@
       <c r="A6" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="243" t="s">
+      <c r="B6" s="244" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="243"/>
+      <c r="C6" s="244"/>
       <c r="E6" s="18"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -6190,28 +6190,28 @@
       <c r="A7" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="256" t="s">
+      <c r="B7" s="261" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
+      <c r="C7" s="249"/>
+      <c r="D7" s="249"/>
+      <c r="E7" s="249"/>
+      <c r="F7" s="249"/>
+      <c r="G7" s="249"/>
       <c r="H7" s="78"/>
     </row>
     <row r="8" spans="1:8" ht="26.25" customHeight="1">
       <c r="A8" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="244" t="s">
+      <c r="B8" s="249" t="s">
         <v>143</v>
       </c>
-      <c r="C8" s="244"/>
-      <c r="D8" s="244"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="244"/>
-      <c r="G8" s="244"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="249"/>
+      <c r="G8" s="249"/>
       <c r="H8" s="78"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" customHeight="1">
@@ -6224,54 +6224,54 @@
       <c r="C9" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="249" t="s">
         <v>147</v>
       </c>
-      <c r="E9" s="244"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="244"/>
+      <c r="E9" s="249"/>
+      <c r="F9" s="249"/>
+      <c r="G9" s="249"/>
       <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" customHeight="1">
       <c r="A10" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="245" t="s">
+      <c r="B10" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="244"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="244"/>
+      <c r="C10" s="249"/>
+      <c r="D10" s="249"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
       <c r="H10" s="80"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
       <c r="A11" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="250" t="s">
         <v>187</v>
       </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="244"/>
-      <c r="F11" s="244"/>
-      <c r="G11" s="244"/>
+      <c r="C11" s="249"/>
+      <c r="D11" s="249"/>
+      <c r="E11" s="249"/>
+      <c r="F11" s="249"/>
+      <c r="G11" s="249"/>
       <c r="H11" s="78"/>
     </row>
     <row r="12" spans="1:8" ht="25.5" customHeight="1">
       <c r="A12" s="77" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="244" t="s">
+      <c r="B12" s="249" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="244"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="244"/>
-      <c r="F12" s="244"/>
-      <c r="G12" s="244"/>
+      <c r="C12" s="249"/>
+      <c r="D12" s="249"/>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
     </row>
     <row r="13" spans="1:8" ht="13">
       <c r="B13" s="74"/>
@@ -6281,34 +6281,34 @@
       <c r="A14" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="B14" s="260" t="s">
+      <c r="B14" s="243" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="243"/>
+      <c r="C14" s="244"/>
       <c r="E14" s="18"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="71"/>
     </row>
     <row r="15" spans="1:8" ht="60" customHeight="1">
-      <c r="B15" s="257" t="s">
+      <c r="B15" s="262" t="s">
         <v>289</v>
       </c>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" customHeight="1">
-      <c r="B16" s="246" t="s">
+      <c r="B16" s="251" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="246"/>
-      <c r="G16" s="246"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="251"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
     </row>
     <row r="17" spans="2:7" ht="23" customHeight="1">
       <c r="B17" s="83" t="s">
@@ -6317,12 +6317,12 @@
       <c r="C17" s="83" t="s">
         <v>168</v>
       </c>
-      <c r="D17" s="247" t="s">
+      <c r="D17" s="252" t="s">
         <v>169</v>
       </c>
-      <c r="E17" s="248"/>
-      <c r="F17" s="248"/>
-      <c r="G17" s="248"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
     </row>
     <row r="18" spans="2:7" ht="23" customHeight="1">
       <c r="B18" s="147" t="s">
@@ -6331,10 +6331,10 @@
       <c r="C18" s="21" t="s">
         <v>281</v>
       </c>
-      <c r="D18" s="254"/>
-      <c r="E18" s="255"/>
-      <c r="F18" s="255"/>
-      <c r="G18" s="255"/>
+      <c r="D18" s="259"/>
+      <c r="E18" s="260"/>
+      <c r="F18" s="260"/>
+      <c r="G18" s="260"/>
     </row>
     <row r="19" spans="2:7" ht="23" customHeight="1">
       <c r="B19" s="147" t="s">
@@ -6343,10 +6343,10 @@
       <c r="C19" s="94" t="s">
         <v>282</v>
       </c>
-      <c r="D19" s="249"/>
-      <c r="E19" s="250"/>
-      <c r="F19" s="250"/>
-      <c r="G19" s="250"/>
+      <c r="D19" s="254"/>
+      <c r="E19" s="255"/>
+      <c r="F19" s="255"/>
+      <c r="G19" s="255"/>
     </row>
     <row r="20" spans="2:7" ht="23" customHeight="1">
       <c r="B20" s="147" t="s">
@@ -6355,10 +6355,10 @@
       <c r="C20" s="138" t="s">
         <v>283</v>
       </c>
-      <c r="D20" s="251"/>
-      <c r="E20" s="252"/>
-      <c r="F20" s="252"/>
-      <c r="G20" s="253"/>
+      <c r="D20" s="256"/>
+      <c r="E20" s="257"/>
+      <c r="F20" s="257"/>
+      <c r="G20" s="258"/>
     </row>
     <row r="21" spans="2:7" ht="23" customHeight="1">
       <c r="B21" s="21" t="s">
@@ -6367,34 +6367,29 @@
       <c r="C21" s="137" t="s">
         <v>319</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="248"/>
+      <c r="F21" s="248"/>
+      <c r="G21" s="248"/>
     </row>
     <row r="22" spans="2:7" ht="23" customHeight="1">
       <c r="B22" s="84"/>
       <c r="C22" s="84"/>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="248"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="248"/>
     </row>
     <row r="23" spans="2:7" ht="23" customHeight="1">
       <c r="B23" s="84"/>
       <c r="C23" s="84"/>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
+      <c r="D23" s="248"/>
+      <c r="E23" s="248"/>
+      <c r="F23" s="248"/>
+      <c r="G23" s="248"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B4:G4"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B8:G8"/>
@@ -6411,6 +6406,11 @@
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="B7:G7"/>
     <mergeCell ref="B15:G15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B4:G4"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -6472,173 +6472,173 @@
       <c r="J2" s="263"/>
     </row>
     <row r="3" spans="1:10" ht="27" customHeight="1">
-      <c r="B3" s="246" t="s">
+      <c r="B3" s="251" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="251"/>
+      <c r="E3" s="251"/>
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="251"/>
+      <c r="J3" s="251"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="B4" s="246" t="s">
+      <c r="B4" s="251" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="246"/>
-      <c r="D4" s="246"/>
-      <c r="E4" s="246"/>
-      <c r="F4" s="246"/>
-      <c r="G4" s="246"/>
-      <c r="H4" s="246"/>
-      <c r="I4" s="246"/>
-      <c r="J4" s="246"/>
+      <c r="C4" s="251"/>
+      <c r="D4" s="251"/>
+      <c r="E4" s="251"/>
+      <c r="F4" s="251"/>
+      <c r="G4" s="251"/>
+      <c r="H4" s="251"/>
+      <c r="I4" s="251"/>
+      <c r="J4" s="251"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="246" t="s">
+      <c r="B5" s="251" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="246"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="246"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
-      <c r="I5" s="246"/>
-      <c r="J5" s="246"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="251"/>
+      <c r="E5" s="251"/>
+      <c r="F5" s="251"/>
+      <c r="G5" s="251"/>
+      <c r="H5" s="251"/>
+      <c r="I5" s="251"/>
+      <c r="J5" s="251"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
-      <c r="B6" s="246" t="s">
+      <c r="B6" s="251" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="246"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="246"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
-      <c r="I6" s="246"/>
-      <c r="J6" s="246"/>
+      <c r="C6" s="251"/>
+      <c r="D6" s="251"/>
+      <c r="E6" s="251"/>
+      <c r="F6" s="251"/>
+      <c r="G6" s="251"/>
+      <c r="H6" s="251"/>
+      <c r="I6" s="251"/>
+      <c r="J6" s="251"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="246" t="s">
+      <c r="B7" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="246"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="246"/>
-      <c r="J7" s="246"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
+      <c r="J7" s="251"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="B8" s="246" t="s">
+      <c r="B8" s="251" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="246"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="246"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
-      <c r="I8" s="246"/>
-      <c r="J8" s="246"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="251"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="246" t="s">
+      <c r="B9" s="251" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
+      <c r="J9" s="251"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="246" t="s">
+      <c r="B10" s="251" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="246"/>
-      <c r="D10" s="246"/>
-      <c r="E10" s="246"/>
-      <c r="F10" s="246"/>
-      <c r="G10" s="246"/>
-      <c r="H10" s="246"/>
-      <c r="I10" s="246"/>
-      <c r="J10" s="246"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
+      <c r="J10" s="251"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="246" t="s">
+      <c r="B11" s="251" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="246"/>
-      <c r="E11" s="246"/>
-      <c r="F11" s="246"/>
-      <c r="G11" s="246"/>
-      <c r="H11" s="246"/>
-      <c r="I11" s="246"/>
-      <c r="J11" s="246"/>
+      <c r="C11" s="251"/>
+      <c r="D11" s="251"/>
+      <c r="E11" s="251"/>
+      <c r="F11" s="251"/>
+      <c r="G11" s="251"/>
+      <c r="H11" s="251"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="246" t="s">
+      <c r="B12" s="251" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="246"/>
-      <c r="G12" s="246"/>
-      <c r="H12" s="246"/>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="251"/>
+      <c r="F12" s="251"/>
+      <c r="G12" s="251"/>
+      <c r="H12" s="251"/>
+      <c r="I12" s="251"/>
+      <c r="J12" s="251"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="246" t="s">
+      <c r="B13" s="251" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="246"/>
-      <c r="G13" s="246"/>
-      <c r="H13" s="246"/>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="251"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="246" t="s">
+      <c r="B14" s="251" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="246"/>
-      <c r="D14" s="246"/>
-      <c r="E14" s="246"/>
-      <c r="F14" s="246"/>
-      <c r="G14" s="246"/>
-      <c r="H14" s="246"/>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="251"/>
+      <c r="E14" s="251"/>
+      <c r="F14" s="251"/>
+      <c r="G14" s="251"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="251"/>
+      <c r="J14" s="251"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="246" t="s">
+      <c r="B15" s="251" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="246"/>
-      <c r="J15" s="246"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="251"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="251"/>
+      <c r="I15" s="251"/>
+      <c r="J15" s="251"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1">
@@ -6657,17 +6657,17 @@
       <c r="J17" s="263"/>
     </row>
     <row r="18" spans="1:10" ht="78.75" customHeight="1">
-      <c r="B18" s="246" t="s">
+      <c r="B18" s="251" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="246"/>
-      <c r="D18" s="246"/>
-      <c r="E18" s="246"/>
-      <c r="F18" s="246"/>
-      <c r="G18" s="246"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="246"/>
-      <c r="J18" s="246"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="1">
@@ -6686,17 +6686,17 @@
       <c r="J20" s="263"/>
     </row>
     <row r="21" spans="1:10" ht="101.25" customHeight="1">
-      <c r="B21" s="246" t="s">
+      <c r="B21" s="251" t="s">
         <v>96</v>
       </c>
-      <c r="C21" s="246"/>
-      <c r="D21" s="246"/>
-      <c r="E21" s="246"/>
-      <c r="F21" s="246"/>
-      <c r="G21" s="246"/>
-      <c r="H21" s="246"/>
-      <c r="I21" s="246"/>
-      <c r="J21" s="246"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="251"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="251"/>
+      <c r="I21" s="251"/>
+      <c r="J21" s="251"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="1">
@@ -6707,28 +6707,28 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="44.25" customHeight="1">
-      <c r="B24" s="246" t="s">
+      <c r="B24" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="246"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="246"/>
-      <c r="F24" s="246"/>
-      <c r="G24" s="246"/>
-      <c r="H24" s="246"/>
-      <c r="I24" s="246"/>
-      <c r="J24" s="246"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="251"/>
+      <c r="E24" s="251"/>
+      <c r="F24" s="251"/>
+      <c r="G24" s="251"/>
+      <c r="H24" s="251"/>
+      <c r="I24" s="251"/>
+      <c r="J24" s="251"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="246"/>
-      <c r="G25" s="246"/>
-      <c r="H25" s="246"/>
-      <c r="I25" s="246"/>
-      <c r="J25" s="246"/>
+      <c r="B25" s="251"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="251"/>
+      <c r="E25" s="251"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="251"/>
+      <c r="J25" s="251"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="1">
@@ -6739,17 +6739,17 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="76.5" customHeight="1">
-      <c r="B27" s="246" t="s">
+      <c r="B27" s="251" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
-      <c r="G27" s="246"/>
-      <c r="H27" s="246"/>
-      <c r="I27" s="246"/>
-      <c r="J27" s="246"/>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
+      <c r="G27" s="251"/>
+      <c r="H27" s="251"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="251"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="1">
@@ -6760,20 +6760,35 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="33" customHeight="1">
-      <c r="B30" s="246" t="s">
+      <c r="B30" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="C30" s="246"/>
-      <c r="D30" s="246"/>
-      <c r="E30" s="246"/>
-      <c r="F30" s="246"/>
-      <c r="G30" s="246"/>
-      <c r="H30" s="246"/>
-      <c r="I30" s="246"/>
-      <c r="J30" s="246"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="251"/>
+      <c r="E30" s="251"/>
+      <c r="F30" s="251"/>
+      <c r="G30" s="251"/>
+      <c r="H30" s="251"/>
+      <c r="I30" s="251"/>
+      <c r="J30" s="251"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B21:J21"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B27:J27"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B24:J24"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B11:J11"/>
@@ -6782,21 +6797,6 @@
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B21:J21"/>
-    <mergeCell ref="B18:J18"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="B17:J17"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="B27:J27"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8259,7 +8259,7 @@
   <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
